--- a/academycity/data/training/datasets/excel/battalion_2/112.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/112.xlsx
@@ -164,7 +164,7 @@
     <t xml:space="preserve">R122200291</t>
   </si>
   <si>
-    <t xml:space="preserve">BADIBANGA NGALAMULUME  Hilaire </t>
+    <t xml:space="preserve">BADIBANGA NGALAMULUME Hilaire </t>
   </si>
   <si>
     <r>
@@ -195,7 +195,7 @@
     <t xml:space="preserve">R122200271</t>
   </si>
   <si>
-    <t xml:space="preserve">AMULI  MWAMBAVU  JOEL </t>
+    <t xml:space="preserve">AMULI MWAMBAVU JOEL </t>
   </si>
   <si>
     <t xml:space="preserve">Sgt </t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">R122200281</t>
   </si>
   <si>
-    <t xml:space="preserve">LUBANDA  BAPUABA  ALI </t>
+    <t xml:space="preserve">LUBANDA BAPUABA ALI </t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">R01230946</t>
   </si>
   <si>
-    <t xml:space="preserve">MWAKA-NDJAO </t>
+    <t xml:space="preserve">MWAKA NDJAO </t>
   </si>
   <si>
     <t xml:space="preserve">R1807221056</t>
@@ -579,7 +579,7 @@
     <t xml:space="preserve">R01230490</t>
   </si>
   <si>
-    <t xml:space="preserve">OTAPANYA-MANYA </t>
+    <t xml:space="preserve">OTAPANYA MANYA </t>
   </si>
   <si>
     <t xml:space="preserve">R1807221210</t>
@@ -834,7 +834,7 @@
     <t xml:space="preserve">R01230988</t>
   </si>
   <si>
-    <t xml:space="preserve">MOWANGI-MOWANGI </t>
+    <t xml:space="preserve">MOWANGI MOWANGI </t>
   </si>
   <si>
     <t xml:space="preserve">R1807221078</t>
@@ -861,7 +861,7 @@
     <t xml:space="preserve">R01230061</t>
   </si>
   <si>
-    <t xml:space="preserve">MONGA-SELEMANI </t>
+    <t xml:space="preserve">MONGA SELEMANI </t>
   </si>
   <si>
     <t xml:space="preserve">R1807220971</t>
@@ -996,7 +996,7 @@
     <t xml:space="preserve">R01230736</t>
   </si>
   <si>
-    <t xml:space="preserve">MPONGO-TSHIBANGU </t>
+    <t xml:space="preserve">MPONGO TSHIBANGU </t>
   </si>
   <si>
     <t xml:space="preserve">R1807221216</t>
@@ -1906,7 +1906,7 @@
     <t xml:space="preserve">KANDAYI TSHINYAMA JUSTIN </t>
   </si>
   <si>
-    <t xml:space="preserve">KANDUMBU-KIKENGA-JEAN </t>
+    <t xml:space="preserve">KANDUMBU KIKENGA JEAN </t>
   </si>
   <si>
     <t xml:space="preserve">KAYOMBO KABUAYA PASCAL  </t>
@@ -1943,37 +1943,37 @@
     <t xml:space="preserve">MAKEMA KASONGA BENOIT </t>
   </si>
   <si>
-    <t xml:space="preserve">MALEMBE-MAKUNZI-BLANCHARD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBUYI-NSAMBA-PAULIN </t>
+    <t xml:space="preserve">MALEMBE MAKUNZI BLANCHARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBUYI NSAMBA PAULIN </t>
   </si>
   <si>
     <t xml:space="preserve">KABASELE MUKENGE LEONARD </t>
   </si>
   <si>
-    <t xml:space="preserve">MOTOSILA-ETAMA-DAVID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPOYI-LUMUMBA-FRANCOIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUKENDI-LUMBALA-ALFRED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYENGELE-MUTEBA-ANDRE </t>
+    <t xml:space="preserve">MOTOSILA ETAMA DAVID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPOYI LUMUMBA FRANCOIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUKENDI LUMBALA ALFRED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYENGELE MUTEBA ANDRE </t>
   </si>
   <si>
     <t xml:space="preserve">MBUYAMBA BANGA TRESOR </t>
   </si>
   <si>
-    <t xml:space="preserve">TABALAYI-NTUMBA-RICHARD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSHILOMBO-BUKASA-ARNOLD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWAMBA-MULAMBA-VICKY </t>
+    <t xml:space="preserve">TABALAYI NTUMBA RICHARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSHILOMBO BUKASA ARNOLD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWAMBA MULAMBA VICKY </t>
   </si>
   <si>
     <t xml:space="preserve">GALEAKALE KITAMBO JOEL </t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">NJIBU NGOYI JEAMPY </t>
   </si>
   <si>
-    <t xml:space="preserve">ZAHIGA MOSENGO JEAN-PAUL </t>
+    <t xml:space="preserve">ZAHIGA MOSENGO JEAN PAUL</t>
   </si>
   <si>
     <t xml:space="preserve">ILUNGA MUILA AUGUSTIN </t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">MWEBE EFUCHI MUYOMBI</t>
   </si>
   <si>
-    <t xml:space="preserve">BIKUBA-FWAMBA-EMMANUEL </t>
+    <t xml:space="preserve">BIKUBA FWAMBA EMMANUEL </t>
   </si>
   <si>
     <t xml:space="preserve">EDO UTUM DE FILS </t>
@@ -2069,25 +2069,25 @@
     <t xml:space="preserve">KAPONGU TSHAMALA EMMANUEL </t>
   </si>
   <si>
-    <t xml:space="preserve">LIAHU-ELAKO Fiston </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIALA  MANKONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFUMUETO-GAEL-AGOGO </t>
+    <t xml:space="preserve">LIAHU ELAKO Fiston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siala makondo francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFUMUETO GAEL AGOGO </t>
   </si>
   <si>
     <t xml:space="preserve">KALONJI ILUNGA </t>
   </si>
   <si>
-    <t xml:space="preserve">MOMBANGU-MATA-JOHN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPENZE-TANDALA-DOUGLAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUELA-MBALA-POMPIDOU </t>
+    <t xml:space="preserve">MOMBANGU MATA JOHN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPENZE TANDALA DOUGLAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUELA MBALA POMPIDOU </t>
   </si>
   <si>
     <t xml:space="preserve">MUKENDI KABEYA PATRICK </t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">NDIBU MBUYI Potient </t>
   </si>
   <si>
-    <t xml:space="preserve">NGALAMULUME-NTUMBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIMBUE-YUAKALI-TRESOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSHIBASU-TSHITENGE-NOE </t>
+    <t xml:space="preserve">NGALAMULUME NTUMBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMBUE YUAKALI TRESOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSHIBASU TSHITENGE NOE </t>
   </si>
   <si>
     <t xml:space="preserve">TSHILUMBA MUKADI François </t>
@@ -2200,7 +2200,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TSHITENGE-BETU</t>
+      <t xml:space="preserve">TSHITENGE BETU</t>
     </r>
     <r>
       <rPr>
@@ -2229,31 +2229,31 @@
     <t xml:space="preserve">KEBA KATENDE JUNIOR  </t>
   </si>
   <si>
-    <t xml:space="preserve">NKEZENGA-SUBAYI GABRIEL </t>
+    <t xml:space="preserve">NKEZENGA SUBAYI GABRIEL </t>
   </si>
   <si>
     <t xml:space="preserve">KIAKU AKALIMESU Patient </t>
   </si>
   <si>
-    <t xml:space="preserve">KOLEKA-MAUDA PRINCE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KONGA-LIWANGA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUTA-NDEDETEMO GODEFROID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINGOLO-ILANGA APO </t>
+    <t xml:space="preserve">KOLEKA MAUDA PRINCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KONGA LIWANGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUTA NDEDETEMO GODEFROID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINGOLO ILANGA APO </t>
   </si>
   <si>
     <t xml:space="preserve">LISETSHIA LIKUNDE LA VIE</t>
   </si>
   <si>
-    <t xml:space="preserve">LISUNGI-NGANDI-JOLI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITA-BAKAMBA </t>
+    <t xml:space="preserve">LISUNGI NGANDI JOLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITA BAKAMBA </t>
   </si>
   <si>
     <t xml:space="preserve">LONGOMA OTSHIUDI ALPHONSE </t>
@@ -2265,7 +2265,7 @@
     <t xml:space="preserve">UBIMO AMBIASO ERICHOT </t>
   </si>
   <si>
-    <t xml:space="preserve">MAKOY-YENGA-JOEL</t>
+    <t xml:space="preserve">MAKOY YENGA JOEL</t>
   </si>
   <si>
     <t xml:space="preserve">MUBARAKA RABBI SERGE</t>
@@ -2274,10 +2274,10 @@
     <t xml:space="preserve">MBOMA LEDI JACQUES</t>
   </si>
   <si>
-    <t xml:space="preserve">MANDE-KABUNDA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGANGA-MAYOMBE </t>
+    <t xml:space="preserve">MANDE KABUNDA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGANGA MAYOMBE </t>
   </si>
   <si>
     <t xml:space="preserve">MANGUINDI BEKUDU BERNARD </t>
@@ -2286,25 +2286,25 @@
     <t xml:space="preserve">MANZINZI KABUKU Roben </t>
   </si>
   <si>
-    <t xml:space="preserve">MATONSI-BAMBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYALA-TSHOMBO </t>
+    <t xml:space="preserve">MATONSI BAMBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYALA TSHOMBO </t>
   </si>
   <si>
     <t xml:space="preserve">MBATU LIPASA MICKAEL</t>
   </si>
   <si>
-    <t xml:space="preserve">MBOKA-WIZAMO-ALAIN </t>
+    <t xml:space="preserve">MBOKA WIZAMO ALAIN </t>
   </si>
   <si>
     <t xml:space="preserve">MBUKWA SAMUEL JOSE</t>
   </si>
   <si>
-    <t xml:space="preserve">MBUYI-BENDA-JEAMPY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTOKA-MOKASA-JOSEPH </t>
+    <t xml:space="preserve">MBUYI BENDA JEAMPY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOKA MOKASA JOSEPH </t>
   </si>
   <si>
     <t xml:space="preserve">MPANGWE MWASSA GEORGES </t>
@@ -2340,10 +2340,10 @@
     <t xml:space="preserve">MWANDA KABANGU EVARISTE </t>
   </si>
   <si>
-    <t xml:space="preserve">NDAYA-NSUMPE-JEAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDJOKU-ALUAWU </t>
+    <t xml:space="preserve">NDAYA NSUMPE JEAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDJOKU ALUAWU </t>
   </si>
   <si>
     <t xml:space="preserve">OKONDO KABUYE</t>
@@ -2367,7 +2367,7 @@
     <t xml:space="preserve">EKOMBO BONKUFU </t>
   </si>
   <si>
-    <t xml:space="preserve">FINDULA-BWANZA-OSCAR </t>
+    <t xml:space="preserve">FINDULA BWANZA OSCAR </t>
   </si>
   <si>
     <t xml:space="preserve">HASSANI MALIKI NORBERT  </t>
@@ -2379,31 +2379,31 @@
     <t xml:space="preserve">KALUPEMPA TSHIEPELA </t>
   </si>
   <si>
-    <t xml:space="preserve">KENDA-NKULU-JONAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOMANDA-TONGOLO-ELIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYE-NABALEAZO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBOLI-KANDULA-GUELORD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBUMBA-KABONGO-JEAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPUMBU-NTUMBA-JUSTIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUENU-MUTSHIBI </t>
+    <t xml:space="preserve">KENDA NKULU JONAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMANDA TONGOLO ELIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYE NABALEAZO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBOLI KANDULA GUELORD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBUMBA KABONGO JEAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPUMBU NTUMBA JUSTIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUENU MUTSHIBI </t>
   </si>
   <si>
     <t xml:space="preserve">MUKOSA MIHIGO LEVIS  </t>
   </si>
   <si>
-    <t xml:space="preserve">MUMBELE-LINGBANDU-JEAN </t>
+    <t xml:space="preserve">MUMBELE LINGBANDU JEAN </t>
   </si>
   <si>
     <t xml:space="preserve">NGABA KAMESA Jackson </t>
@@ -2418,10 +2418,10 @@
     <t xml:space="preserve">KAMBALE PALUKU ISACC</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHILONDA-NSANA-RAPHAEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGOY LUMWETO </t>
+    <t xml:space="preserve">TSHILONDA NSANA RAPHAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngoy lumweto alexander</t>
   </si>
   <si>
     <t xml:space="preserve">KABASEKE DHASSA OLIER  </t>
@@ -2481,7 +2481,7 @@
     <t xml:space="preserve">ZULU</t>
   </si>
   <si>
-    <t xml:space="preserve">AFIKO-KASHINDE-AMURI </t>
+    <t xml:space="preserve">AFIKO KASHINDE AMURI </t>
   </si>
   <si>
     <r>
@@ -2511,7 +2511,7 @@
     <t xml:space="preserve">R122200311</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBA-BOMBELENGA-JEREMIE </t>
+    <t xml:space="preserve">AMBA BOMBELENGA JEREMIE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220339</t>
@@ -2547,7 +2547,7 @@
     <t xml:space="preserve">R122200331</t>
   </si>
   <si>
-    <t xml:space="preserve">ASSIMBO-KALUME-GLODY </t>
+    <t xml:space="preserve">ASSIMBO KALUME GLODY </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220760</t>
@@ -2556,7 +2556,7 @@
     <t xml:space="preserve">R01230071</t>
   </si>
   <si>
-    <t xml:space="preserve">BASILA-ELONGO-DIEUMERCI </t>
+    <t xml:space="preserve">BASILA ELONGO DIEUMERCI </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220758</t>
@@ -2565,7 +2565,7 @@
     <t xml:space="preserve">R01230073</t>
   </si>
   <si>
-    <t xml:space="preserve">BEBOKO-NZOUIYEMBE-JUGUEL</t>
+    <t xml:space="preserve">BEBOKO NZOUIYEMBE JUGUEL</t>
   </si>
   <si>
     <t xml:space="preserve">M1807220757</t>
@@ -2583,7 +2583,7 @@
     <t xml:space="preserve">R01230075</t>
   </si>
   <si>
-    <t xml:space="preserve">BILOWA-MPUTU-ERICK </t>
+    <t xml:space="preserve">BILOWA MPUTU ERICK </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220756</t>
@@ -2592,7 +2592,7 @@
     <t xml:space="preserve">R01230076</t>
   </si>
   <si>
-    <t xml:space="preserve">BONZOMBI-BINGELE-DESIRE </t>
+    <t xml:space="preserve">BONZOMBI BINGELE DESIRE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220754</t>
@@ -2601,7 +2601,7 @@
     <t xml:space="preserve">R01230077</t>
   </si>
   <si>
-    <t xml:space="preserve">BWANGOMO-EKESE-GERMAIN </t>
+    <t xml:space="preserve">BWANGOMO EKESE GERMAIN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220753</t>
@@ -2610,7 +2610,7 @@
     <t xml:space="preserve">R01230078</t>
   </si>
   <si>
-    <t xml:space="preserve">ETENZA-MANDIYA-TERMINE </t>
+    <t xml:space="preserve">ETENZA MANDIYA TERMINE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220752</t>
@@ -2628,7 +2628,7 @@
     <t xml:space="preserve">R01230080</t>
   </si>
   <si>
-    <t xml:space="preserve">GEKENDE-LIFAA-FIDEL </t>
+    <t xml:space="preserve">GEKENDE LIFAA FIDEL </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220761</t>
@@ -2637,25 +2637,7 @@
     <t xml:space="preserve">R01230081</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ILUNGA-TSHIMBU-TRESOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">ILUNGA TSHIMBU TRESOR </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220762</t>
@@ -2664,25 +2646,7 @@
     <t xml:space="preserve">R01230082</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IMANA-JOSUE-JOSUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">IMANA JOSUE JOSUE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220763</t>
@@ -2691,7 +2655,7 @@
     <t xml:space="preserve">R01230083</t>
   </si>
   <si>
-    <t xml:space="preserve">ITENYAKA-OSUMAKA-FISTON </t>
+    <t xml:space="preserve">ITENYAKA OSUMAKA FISTON </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220764</t>
@@ -2700,7 +2664,7 @@
     <t xml:space="preserve">R01230084</t>
   </si>
   <si>
-    <t xml:space="preserve">KABEYA-KASHALA-EVA </t>
+    <t xml:space="preserve">KABEYA KASHALA EVA </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220765</t>
@@ -2757,7 +2721,7 @@
     <t xml:space="preserve">R01230088</t>
   </si>
   <si>
-    <t xml:space="preserve">KALALA-KALALA-JOHN </t>
+    <t xml:space="preserve">KALALA KALALA JOHN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220769</t>
@@ -2766,7 +2730,7 @@
     <t xml:space="preserve">R01230089</t>
   </si>
   <si>
-    <t xml:space="preserve">KANDI-KABASELE-HARDY </t>
+    <t xml:space="preserve">KANDI KABASELE HARDY </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220770</t>
@@ -2775,7 +2739,7 @@
     <t xml:space="preserve">R01230090</t>
   </si>
   <si>
-    <t xml:space="preserve">KAPEPULA-MWASSA-ALIDOR </t>
+    <t xml:space="preserve">KAPEPULA MWASSA ALIDOR </t>
   </si>
   <si>
     <r>
@@ -2814,25 +2778,7 @@
     <t xml:space="preserve">R01230112</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">KATABWA-KAMBA-ROGER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">KATABWA KAMBA ROGER </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220778</t>
@@ -2841,7 +2787,7 @@
     <t xml:space="preserve">R01230113</t>
   </si>
   <si>
-    <t xml:space="preserve">KATAKU-TSHIABUTA-GERMAIN </t>
+    <t xml:space="preserve">KATAKU TSHIABUTA GERMAIN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220774</t>
@@ -2850,7 +2796,7 @@
     <t xml:space="preserve">R01230114</t>
   </si>
   <si>
-    <t xml:space="preserve">KIAMBA-MITONGA-GRACIA </t>
+    <t xml:space="preserve">KIAMBA MITONGA GRACIA </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220776</t>
@@ -2859,7 +2805,7 @@
     <t xml:space="preserve">R01230115</t>
   </si>
   <si>
-    <t xml:space="preserve">KITUMAINI-MUTOMBO-ESPOIR </t>
+    <t xml:space="preserve">KITUMAINI MUTOMBO ESPOIR </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220773</t>
@@ -2868,7 +2814,7 @@
     <t xml:space="preserve">R01230116</t>
   </si>
   <si>
-    <t xml:space="preserve">KOKPITO-KOTO-CHINI </t>
+    <t xml:space="preserve">KOKPITO KOTO CHINI </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220775</t>
@@ -2877,7 +2823,7 @@
     <t xml:space="preserve">R01230117</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMELA-LIFOLI-MATHIEU </t>
+    <t xml:space="preserve">LIMELA LIFOLI MATHIEU </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220779</t>
@@ -2886,7 +2832,7 @@
     <t xml:space="preserve">R01230118</t>
   </si>
   <si>
-    <t xml:space="preserve">LOFEMBA-YENGA-BLAISE </t>
+    <t xml:space="preserve">LOFEMBA YENGA BLAISE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220772</t>
@@ -2895,7 +2841,7 @@
     <t xml:space="preserve">R01230119</t>
   </si>
   <si>
-    <t xml:space="preserve">MAYOYI-TSHIABA-DJUMA </t>
+    <t xml:space="preserve">MAYOYI TSHIABA DJUMA </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220777</t>
@@ -2904,7 +2850,7 @@
     <t xml:space="preserve">R01230120</t>
   </si>
   <si>
-    <t xml:space="preserve">MAZANO-TETO-SIRUS </t>
+    <t xml:space="preserve">MAZANO TETO SIRUS </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220785</t>
@@ -2931,7 +2877,7 @@
     <t xml:space="preserve">R01230173</t>
   </si>
   <si>
-    <t xml:space="preserve">MONGONYO-DJANGE-SHABANI </t>
+    <t xml:space="preserve">MONGONYO DJANGE SHABANI </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220789</t>
@@ -2940,7 +2886,7 @@
     <t xml:space="preserve">R01230174</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSALA-MOTUTA-DIEU MERCI </t>
+    <t xml:space="preserve">MOSALA MOTUTA DIEU MERCI </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220788</t>
@@ -2949,7 +2895,7 @@
     <t xml:space="preserve">R01230175</t>
   </si>
   <si>
-    <t xml:space="preserve">MPUTU-BAKILI-KUMU </t>
+    <t xml:space="preserve">MPUTU BAKILI KUMU </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220790</t>
@@ -2958,7 +2904,7 @@
     <t xml:space="preserve">R01230176</t>
   </si>
   <si>
-    <t xml:space="preserve">MUKAYA-KABASUKUSUA-MOLIERE </t>
+    <t xml:space="preserve">MUKAYA KABASUKUSUA MOLIERE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220786</t>
@@ -2967,7 +2913,7 @@
     <t xml:space="preserve">R01230177</t>
   </si>
   <si>
-    <t xml:space="preserve">MUKEBA-BUTUMBI-ARNOLD </t>
+    <t xml:space="preserve">MUKEBA BUTUMBI ARNOLD </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220781</t>
@@ -2976,7 +2922,7 @@
     <t xml:space="preserve">R01230178</t>
   </si>
   <si>
-    <t xml:space="preserve">MUKONKOLE-SENDE-JEAN </t>
+    <t xml:space="preserve">MUKONKOLE SENDE JEAN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220782</t>
@@ -3033,25 +2979,7 @@
     <t xml:space="preserve">R01230851</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MULUMBA-NKOLE-JEAN BONIFACE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">MULUMBA NKOLE JEAN BONIFACE </t>
   </si>
   <si>
     <r>
@@ -3117,7 +3045,7 @@
     <t xml:space="preserve">R01230274</t>
   </si>
   <si>
-    <t xml:space="preserve">ODIHO-KUBUNGA-PRINCE </t>
+    <t xml:space="preserve">ODIHO KUBUNGA PRINCE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220796</t>
@@ -3126,7 +3054,7 @@
     <t xml:space="preserve">R01230276</t>
   </si>
   <si>
-    <t xml:space="preserve">OILANA-TSHWENI-ERIC </t>
+    <t xml:space="preserve">OILANA TSHWENI ERIC </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220795</t>
@@ -3135,7 +3063,7 @@
     <t xml:space="preserve">R01230275</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHIAMALA-DIKASA-HERVE </t>
+    <t xml:space="preserve">TSHIAMALA DIKASA HERVE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220797</t>
@@ -3144,7 +3072,7 @@
     <t xml:space="preserve">R01230277</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHINEMA-NDAYE-TONTON </t>
+    <t xml:space="preserve">TSHINEMA NDAYE TONTON </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220798</t>
@@ -3162,7 +3090,7 @@
     <t xml:space="preserve">R01230279</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHISHIMBI-KAYEMBE-LOUISON</t>
+    <t xml:space="preserve">TSHISHIMBI KAYEMBE LOUISON</t>
   </si>
   <si>
     <t xml:space="preserve">M1807220800</t>
@@ -3180,7 +3108,7 @@
     <t xml:space="preserve">R01230301</t>
   </si>
   <si>
-    <t xml:space="preserve">UMBA-NDOLO-MERTINSE </t>
+    <t xml:space="preserve">UMBA NDOLO MERTINSE </t>
   </si>
   <si>
     <r>
@@ -3612,7 +3540,7 @@
     <t xml:space="preserve">R01230399</t>
   </si>
   <si>
-    <t xml:space="preserve">BASEKA-MULANDA-GLOIRE </t>
+    <t xml:space="preserve">BASEKA MULANDA GLOIRE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220759</t>
@@ -3621,7 +3549,7 @@
     <t xml:space="preserve">R01230072</t>
   </si>
   <si>
-    <t xml:space="preserve">TUSHINDIKA-TAMBWE-KEVINE </t>
+    <t xml:space="preserve">TUSHINDIKA TAMBWE KEVINE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220883</t>
@@ -3759,25 +3687,7 @@
     <t xml:space="preserve">R01230409</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BASILIA EKONENGE JEAN-PIERRE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">BASILIA EKONENGE JEAN PIERRE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220944</t>
@@ -4059,25 +3969,7 @@
     <t xml:space="preserve">R01230717</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MWAMELONGO-BANGO-ALISTIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">MWAMELONGO BANGO ALISTIN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221188</t>
@@ -4086,7 +3978,7 @@
     <t xml:space="preserve">R01230718</t>
   </si>
   <si>
-    <t xml:space="preserve">MOLENGO-BOKULINGINYA </t>
+    <t xml:space="preserve">MOLENGO BOKULINGINYA </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221194</t>
@@ -4140,7 +4032,7 @@
     <t xml:space="preserve">R122200951</t>
   </si>
   <si>
-    <t xml:space="preserve">KADILA-KIPANGULA-JAMES </t>
+    <t xml:space="preserve">KADILA KIPANGULA JAMES </t>
   </si>
   <si>
     <t xml:space="preserve">M1807220340</t>
@@ -4176,7 +4068,7 @@
     <t xml:space="preserve">R01230781</t>
   </si>
   <si>
-    <t xml:space="preserve">SEROMBA-NDELO-ELIE </t>
+    <t xml:space="preserve">SEROMBA NDELO ELIE </t>
   </si>
   <si>
     <t xml:space="preserve">Lt </t>
@@ -4188,7 +4080,7 @@
     <t xml:space="preserve">R01230784</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMBA-BANDU-LAURENT </t>
+    <t xml:space="preserve">SUMBA BANDU LAURENT </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221196</t>
@@ -4269,7 +4161,7 @@
     <t xml:space="preserve">R01230792</t>
   </si>
   <si>
-    <t xml:space="preserve">NZANGA-AYUBI HERITIER</t>
+    <t xml:space="preserve">NZANGA AYUBI HERITIER</t>
   </si>
   <si>
     <t xml:space="preserve">M1807221253</t>
@@ -4314,7 +4206,7 @@
     <t xml:space="preserve">R01230797</t>
   </si>
   <si>
-    <t xml:space="preserve">SAILE-AMALAKATO ATSHALINA </t>
+    <t xml:space="preserve">SAILE AMALAKATO ATSHALINA </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221255</t>
@@ -4323,7 +4215,7 @@
     <t xml:space="preserve">R01230798</t>
   </si>
   <si>
-    <t xml:space="preserve">SMITH-MUSSA-AUGUSTIN </t>
+    <t xml:space="preserve">SMITH MUSSA AUGUSTIN </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221260</t>
@@ -4353,7 +4245,7 @@
     <t xml:space="preserve">R01230852</t>
   </si>
   <si>
-    <t xml:space="preserve">TSHILULU-KABIKABU JEAN</t>
+    <t xml:space="preserve">TSHILULU KABIKABU JEAN</t>
   </si>
   <si>
     <t xml:space="preserve">M1807221263</t>
@@ -4380,7 +4272,7 @@
     <t xml:space="preserve">R01230855</t>
   </si>
   <si>
-    <t xml:space="preserve">WABENGA MWAMBEHE JEAN-PIRRE </t>
+    <t xml:space="preserve">WABENGA MWAMBEHE JEAN PIRRE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221266</t>
@@ -4425,7 +4317,7 @@
     <t xml:space="preserve">R01230860</t>
   </si>
   <si>
-    <t xml:space="preserve">MASIETA-MBAYA PHILIPE </t>
+    <t xml:space="preserve">MASIETA MBAYA PHILIPE </t>
   </si>
   <si>
     <t xml:space="preserve">M1807221271</t>
@@ -4464,7 +4356,7 @@
     <t xml:space="preserve">R01230897</t>
   </si>
   <si>
-    <t xml:space="preserve">NZAU  MASIALA  Cyclone</t>
+    <t xml:space="preserve">NZAU MASIALA Cyclone</t>
   </si>
   <si>
     <t xml:space="preserve">M1807221278</t>
@@ -4798,7 +4690,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4968,15 +4860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I557" activeCellId="0" sqref="I557"/>
+      <selection pane="bottomLeft" activeCell="F359" activeCellId="8" sqref="F376:F378 F380:F384 F388:F390 F392:F400 F403:F408 F414 F417:F420 F422 F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4990,8 +4882,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.77"/>
@@ -63045,7 +62937,18 @@
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AF551"/>
+  <autoFilter ref="A1:AF551">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="ZULU"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="equal" val="4"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/academycity/data/training/datasets/excel/battalion_2/112.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/112.xlsx
@@ -4866,9 +4866,9 @@
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F359" activeCellId="8" sqref="F376:F378 F380:F384 F388:F390 F392:F400 F403:F408 F414 F417:F420 F422 F359"/>
+      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
